--- a/data/hotels_by_city/Dallas/Dallas_shard_479.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_479.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="606">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Djoy906</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The front customer desk were very pleasant and helpful. Rooms are very clean and comfortable. However, this trip the breakfast was disappointing, the food wasn't hot enough and was mentioned to staff.  More</t>
   </si>
   <si>
+    <t>normas765</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r568008649-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Our stay at the La Quinta Inn in Cleburne was nice, calm, and relaxing.  We went to spend time at the State Parks and enjoyed coming back to the hotel for a nice  warm shower and some R and R. Hotel staff was nice and friendly.  Breakfast was great and plentiful.  Thanks for all you to make the stay as nice as possible.More</t>
   </si>
   <si>
+    <t>Brad D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r558265933-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>The management and staff at this Cleburne LaQuinta were friendly and went the extra mile to follow up and mail me back two expensive articles of clothing that I had left in the closet upon my departure.More</t>
   </si>
   <si>
+    <t>642jayf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r558029799-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>The entire hotel was well maintained.  The staff was professional and friendly.  The room was well appointed and clean.  The bed was especially comfortable.  The room was well cleaned daily. We will stay here again.More</t>
   </si>
   <si>
+    <t>Sassyone77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r557013003-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>Too expensive  for what you get.  Staff rude, musty smell in hallways and rooms. Breakfast was not fresh and when I complained  they said then don't eat it. I had stayed here in 2013 bit this place has went downhill fast. More</t>
   </si>
   <si>
+    <t>TexasGoldens</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r552189057-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>This hotel is quiet, clean and comfortable. It is off the main highway, so traffic noise is limited. The outdoor pool was closed for the season. Wifi signal was not strong. Breakfast was nothing special. No half and half for the coffee and no Splenda. The really bad part was I had to be subjected to Fox News at breakfast . That alone would prevent me from ever staying again, in spite of the fact that it is otherwise a nice hotel. More</t>
   </si>
   <si>
+    <t>488earlm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r550345322-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>Overall I thought the hotel stay went well. The rooms were clean and the breakfast was good, however, it would be nice to change around some of the breakfast items and not have the same thing every morning. The only downside was that the noise from the street was very distracting, and we didn't get the room that we initially requested.More</t>
   </si>
   <si>
+    <t>687audreyw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r549299409-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>Clean all the way around.  Great staff.  Competitive pricing.  Good location.  Cold food temperature could have been improved to the regulation 41° and hot foods hotter.  All in all very enjoyable time.  I highly recommend.More</t>
   </si>
   <si>
+    <t>Z4555FWmarkl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r548119704-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>The bad:  Heater didn't work, staff didn't know how to operate the unit, or seem to care.  Didn't offer to change rooms until I brought it up.  Carpet smelled mildly, like spilled milk.The good: Beds were comfortable, bathroom was clean, fresh towels, local cable and decent Wi-Fi.  Just a step above Motel 6.More</t>
   </si>
   <si>
+    <t>nickpK4812CU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r547674174-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -417,6 +447,9 @@
     <t>The rooms are good and big. Very clean. Staff members are very helpful and nice. Had a lot of fun. Some renovations going on. Pool was close but it was cold outside so i didnt mind. They are renovating the pool. It was loo king nice. More</t>
   </si>
   <si>
+    <t>JBTX2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r519915082-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -444,6 +477,9 @@
     <t>Staff is very friendly and overall housekeeping fine.  Hotel has serious problem with dampness.  My room was damp, condensation under lamp when I bumped it on nightstand, mold on lampshades and wall.  Hallway smelled of septic backup. More</t>
   </si>
   <si>
+    <t>dgreen302ret</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r518862404-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -462,6 +498,9 @@
     <t>Family members from gulf coast stayed at Cleburne location and were treated well and with respect  and staff were very helpful. 1st contact with Dillon and he was very helpful in booking and answering questions prior to arrival of family evacuees of hurricane.More</t>
   </si>
   <si>
+    <t>Charles R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r518469693-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -480,6 +519,9 @@
     <t>Room was fine. Bit of a musty smell, but clean. Breakfast tasted like powdered eggs and frozen biscuits. Service was very good. And friendly. Have stayed here before and will again since we have family in the area. More</t>
   </si>
   <si>
+    <t>159sharlas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r516149092-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -504,6 +546,9 @@
     <t>All was good other than some maintenance that needs attending to.  The cleaning ladies, as well as the staff attending the breakfast area were all friendly and pleasant. I plan on booking a return visit to this hotel in the next few days.More</t>
   </si>
   <si>
+    <t>Deborah K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r510386799-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -531,6 +576,9 @@
     <t>Service was great, room was nice except for the nasty curtains.  They also seem to have A/C issues because a friend was in a room that smelled moldy because the A/C leaked a LOT and carpet was all wet.  If they would fix their A/C and at least clean the curtains I would have rated them much higher.More</t>
   </si>
   <si>
+    <t>Dallaschica</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r509121005-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -555,6 +603,9 @@
     <t>Walked into my "nonsmoking" room to smell smoke.  On the phone with the front desk, who assures me, 312 is a non smoking room, when I spy an  ashtray on the desk.  Told no other room is available and am stuck.  If I wanted a smoky room, I could have stayed at a Days Inn for a lot less.More</t>
   </si>
   <si>
+    <t>Javier A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r496886390-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -579,6 +630,9 @@
     <t>I checked in on 6/16/2017 and found every detail taken care of. The lady at the reception had it all ready for the stay. The room was very clean and comfortable; the TV service running with a variety of channels. Breakfast was delicious, although I did not find waffles. But I enjoyed the stay.More</t>
   </si>
   <si>
+    <t>allenh690</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r495298480-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -603,6 +657,9 @@
     <t>Overall outside appearance needed work. Main hallway leading to our room had that musty/mildew smell. Room/suite and bathroom were very nice. The room did not smell like the hallway thank goodness!!!!More</t>
   </si>
   <si>
+    <t>BenH7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r493437547-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -627,6 +684,9 @@
     <t>Terrible experience on recent stay for leisure trip: 1) The odor on the 2nd floor was almost unbearable.  I am usually a very tolerable, but the entire side of the floor near the elevator smelled very strongly of sewer gas.  It was very unpleasant.  I complained, but no solution was proposed and the oder was there throughout my 3 day stay. 2) I returned to my hotel room the third night (of three) and found that all the stuff I had left in the room (dirty clothes, toiletries, beers in the fridge) was missing.  When I contacted the front desk to inquire, I told that someone on the staff had changed my reservation from 3 nights to 2 nights.  She showed me the form and yes someone had scratched out 3 and handwritten 2.  This was not at my request.  After a number of attempts we did manage to find my clothes which were left in multiple plastic bags by the housekeeping staff.  I did not get my toiletries or my beers back.  It was very annoying, but not the end of the world.  What is more disturbing is A) if I had been checked out, why did my key card still work.  Why was I able to get back in the room at all. B) I asked the have the manager call me that night (Saturday).  It didn't happen.  He/she didn't call me the next day (Sunday).  When I...Terrible experience on recent stay for leisure trip: 1) The odor on the 2nd floor was almost unbearable.  I am usually a very tolerable, but the entire side of the floor near the elevator smelled very strongly of sewer gas.  It was very unpleasant.  I complained, but no solution was proposed and the oder was there throughout my 3 day stay. 2) I returned to my hotel room the third night (of three) and found that all the stuff I had left in the room (dirty clothes, toiletries, beers in the fridge) was missing.  When I contacted the front desk to inquire, I told that someone on the staff had changed my reservation from 3 nights to 2 nights.  She showed me the form and yes someone had scratched out 3 and handwritten 2.  This was not at my request.  After a number of attempts we did manage to find my clothes which were left in multiple plastic bags by the housekeeping staff.  I did not get my toiletries or my beers back.  It was very annoying, but not the end of the world.  What is more disturbing is A) if I had been checked out, why did my key card still work.  Why was I able to get back in the room at all. B) I asked the have the manager call me that night (Saturday).  It didn't happen.  He/she didn't call me the next day (Sunday).  When I checked out, I asked again and I was assured that there was a note in my file and that the manager would call me on Monday when he/she was in.  That hasn't happened.  It is now Friday.  Very disappointing.  La Quinta, you usually do better.  Must be poor local management.More</t>
   </si>
   <si>
+    <t>YakMom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r479620184-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -654,6 +714,9 @@
     <t>We moved our daughter to Texas for grad school from Utah.We needed a place that would allow pets for free. Much to our surprise this turned out to be the nicest La Quinta we've ever stayed at! The room was large and the ceilings are very high in the first floor rooms. The people at the front desk were very nice and helpful. We highly recommend this hotel. We've stayed at La Quinta Inns in many states for over 20 years. So we have many to compare. Stay here and you won't be disappointed!More</t>
   </si>
   <si>
+    <t>V7664YImarkl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r453512407-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -675,6 +738,9 @@
     <t>Very clean hotel, polite staff, firm mattress, breakfast is OK, good water force in shower, plenty of parking for my trailer (well lighted), great burger place next door plus a Dairy Queen across the street.More</t>
   </si>
   <si>
+    <t>atruetexan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r451614462-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -693,6 +759,9 @@
     <t>Last minute rush to get a room in town for 1 night.  Look on TripAdvisor and found LaQuinta. The process was easy to book online.  Check in was fast.  The room was clean. The bed was comfortable The breakfast was good except no bacon. The WIFI worked great.More</t>
   </si>
   <si>
+    <t>Snfrds</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r446422400-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -711,6 +780,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Nancy K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r440796720-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -729,6 +801,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>4321IDK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r423198403-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -747,6 +822,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Thomas R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r420029290-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -759,6 +837,9 @@
     <t>Ceiling had ----- on it and it was very hard to ignore.  Staff did nothing to accommodate the inconvenience.  Room was not what was shown on the web. AC did not keep the room at a constant temperature.  Breakfast was the minimum a motel chain could get away with without calling it Continental.</t>
   </si>
   <si>
+    <t>Patty K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r413611033-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -783,6 +864,9 @@
     <t>It is a really good place to stay. It is a really nice and clean rooms. They are very friendly and kind to others. It is close to Grumps and Dairy Queen so if you need food it is close to walk to and not have to drive to.More</t>
   </si>
   <si>
+    <t>Robert I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r410870896-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -798,6 +882,9 @@
     <t>We stayed at this location while visiting family in the Cleburne area. It is well maintained. The rooms were clean and comfortable. The staff was friendly and helpful. Morning breakfast was good. Highly recommend for any one who may be traveling through the Cleburne area to stay.</t>
   </si>
   <si>
+    <t>Jon S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r404396969-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -813,6 +900,9 @@
     <t>All in all it is a nice Hotel to stay. Beds are comfortable and there is not much outside noise. Rooms were clean and comfortable. Breakfast was good and plenty, with plenty seating room. When in the area it is definitely a nice place to stay.</t>
   </si>
   <si>
+    <t>Penny R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r397164421-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -840,6 +930,9 @@
     <t>Very nice staff. The room was very clean and comfortable. The breakfast was very good lots of choices. Was great with pet, very pet friendly put us on first floor to make it easier to take pet outside.More</t>
   </si>
   <si>
+    <t>Joan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r368035788-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -858,6 +951,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Thomas T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r364295131-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -873,6 +969,9 @@
     <t>Facility was clean inside and out. great customer service.  Had a problem with TV and front desk clerk came up and fixed it immediately! Breakfast was great! No smoking room but it did slightly smell of wondering smoke in the halls, not too bad though.</t>
   </si>
   <si>
+    <t>Ronald S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r363798637-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -894,6 +993,9 @@
     <t>Good service.  Excellent breakfast.  Fine bed. Full range TV.  Clean.  Very nominally priced.  In need of improved routine maintenance.  Easy access to downtown and route 67.  Fine place for family, pet, quality sleep at an economical price.More</t>
   </si>
   <si>
+    <t>Brent N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r356469258-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -921,6 +1023,9 @@
     <t>Hotel was great . The parking lot had 7 lights burned out . It was dimly lit . That gave us a very uneasy unsafe feeling for ourselves as well as for our vehicle. This is a big safety issue. We will stay here again but only if the lighting has been taken care of . This is not normal for a La Quinta parking lot to be dimly lit and scary . I have stayed in La Quinta enough in just the past year to have accumulated 140,000 points that should say to anyone I like the hotels . But this one has a scary parking lot .IT NEEDS TO BE TAKEN CARE OFMore</t>
   </si>
   <si>
+    <t>Larry R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r347796858-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -948,6 +1053,9 @@
     <t>New Motel in a small country town. I needed a place quickly that would take my dog (as well as me) and found this La Quinta suddenly in front of me. I was greeted by an uber friendly lady who made me feel instantly, I was home. The place was new so what was there to complain about? New beds, new sheets, even the walls and carpet smelled new. Lucky night.More</t>
   </si>
   <si>
+    <t>Cunwang C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r345883204-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -966,6 +1074,9 @@
     <t>Stayed here for one night. Ms. Amanda and Mr. Chris helped me when there was a mistake due to the malfunctioning of Expedia booking system. The room was clean and they have direct TV. Breakfast was good.More</t>
   </si>
   <si>
+    <t>Bree R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r341514489-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1098,9 @@
     <t>I stayed on the second floor with a group of friends in town for a wedding out at Thistle Springs ranch. The price was great, has free parking and the location suited our needs. Overall it was a really nice property. I'd stay there again if I ever needed to be back in Cleburne.More</t>
   </si>
   <si>
+    <t>Melanie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r339550304-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1005,12 +1119,18 @@
     <t>All Hotels in Glen Rose where booked so we decided to stay in Cleburne 30 min from the shows. Glad we did. The Cleburne hotel was not crowded and the drive to Glen Rose was scenic Highway and no traffic. We arrived at the hotel late and hungry Grumps restaurant is a walk across the LaQuinta parking lot, and it has wonderful burgers and malts. Close to activities, restaurants,  with clean rooms, and friendly staff. Great place to stay!More</t>
   </si>
   <si>
+    <t>Louise W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r336203649-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
     <t>336203649</t>
   </si>
   <si>
+    <t>littlebrownhorse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r332650093-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1149,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Christina S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r324326389-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1047,6 +1170,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r318471977-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1191,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Lane W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r309144818-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1212,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Marissa N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r308122793-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1095,6 +1227,9 @@
     <t xml:space="preserve">The staff in this hotel was very professional and nice. The place was very well taken care of and clean. The pool is not big at all but we only stayed one night so it wasn't something we were interested in anyway. So overall I would totally stay here again and recommend it to a friend. </t>
   </si>
   <si>
+    <t>Brenda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r301716141-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1248,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Jade M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r294445164-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1272,9 @@
     <t>My boyfriend and I stayed here one weekend in June while attending a wedding at Thistle Springs Ranch. The staff member who checked us in was very kind and accommodating. Our room was clean, free wifi was awesome and the tv had a nice selection of channels. On the negative side the bed wasn't very comfortable and the sheets were kind of scratchy feeling. Also the air conditioner was pretty loud and had only one setting: HIGH. The air conditioning unit is right under the window so if you have it on then the curtains constantly look like a ghost. Okay for just a night, but definitely not for extended stay.More</t>
   </si>
   <si>
+    <t>AJB2104</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r281296059-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1158,6 +1299,9 @@
     <t>We travel by AMTRAK, which in out case requires a drive of 3 to 5 hours from ur home to the AMTRAK station serving the desried train.  We discovered the Cleburne LaQuinta to be a convenient and secure location for leacing our vehicle while travalling -- as well as a comfortable place to stay.  Note that theinn has no shuttle, but the cmmunity trnsportation system steps in with an inexpensive and convenient alternative.More</t>
   </si>
   <si>
+    <t>Brenda N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r273503864-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1176,6 +1320,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Frank H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r264776470-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1344,9 @@
     <t>We stayed at this hotel twice in the past week. The hotel was consistent in the friendliness of the personnel working the front desk as well as the breakfast area. The hotel in clean and appears to be fairly new. We happened to stay in the same room both nights, it was located on the first floor next to the lobby and the breakfast area. There was no noise at night or in the morning while breakfast was being served, allowing us to sleep late. The hotel was priced very reasonable, and throw in a free breakfast on top of that. If we have a need to spend the night in Cleburne again, we will definitely be staying here.More</t>
   </si>
   <si>
+    <t>Julie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r263114813-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1215,6 +1365,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Cynthia O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r263184675-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1227,6 +1380,9 @@
     <t>The hotel was great just a few hiccups on our room but other wise clean, staff great ,pet friendly ,love that and enjoyed our stay will come back !! I had read bad towels not so great towels bed great dog area my maltice loved it !!!!!!!!!</t>
   </si>
   <si>
+    <t>Wendy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r261533506-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1242,6 +1398,9 @@
     <t>The staff and the house keeping are very nice here. My husband left a bunch of his stuff in the closet by mistake. About 2 days later he figured it out. So we called the motel and sure enough they had his things. They were bagged and ready for him to pick the next day. Most places would have just said there wasn't anything there. So my hat is off to them for being so great. Thank you. I WOULD BE HAPPY TO STAY THERE AGAIN. The breakfast isn't bad either. :)</t>
   </si>
   <si>
+    <t>Jerry K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r260658882-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1257,6 +1416,9 @@
     <t>Staff friendly price very reasonable accepted our pets a plus, breakfast good and location close to old downtown Cleburne.  I like to jog in am so running down Anglin st. from hotel to downtown is a straight and flat 2 mile jog, 4 mile round trip for exercise buffs.</t>
   </si>
   <si>
+    <t>HouTXCRB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r262859172-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1272,6 +1434,9 @@
     <t>The hotel was clean and neat, had a good breakfast buffet, and the service was excellent. The lady at the front desk could not have been more friendly or efficient. I will definitely stay again if in the area, and will recommend to others to do the same.</t>
   </si>
   <si>
+    <t>missy-steppe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r262858998-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1455,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Patricia O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r188477277-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1476,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Antay P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r185263312-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1335,6 +1506,9 @@
     <t>I stayed at your La Quinta Inn &amp; Suites in Cleburne, Texas in November 2013. The entire stay was a sort of comedy of errors that did not end well for me. I am a young professional female, who was traveling alone at the time. Upon driving up to the hotel, there was an unkept man outside on a cell phone, unprofessionally dressed, who then walked in behind me saying "I have someone to check in now." I had no way to know he was affiliated with the hotel as he wasn't dressed as such, no name badge/ID, etc.   I checked into the hotel with a reservation around 7pm and was assigned room 219. Upon opening the door to the room, I could see bags on the beds as well as people in the room who obviously did not want to be disturbed. I quickly exited the room and returned to the front desk. I told the person at the desk that the room was occupied as well as unclean. He stated those people had checked out hours ago and should not be there. Regardless, they were and the room wasn't clean and ready for another guest. I was then assigned 203. Before entering the room, I knocked with no answer, so I proceeded into the room and settled in for the night. By this time, it is nearing 8pm.   At approximately 1:30am, I hear a loud bang at my...I stayed at your La Quinta Inn &amp; Suites in Cleburne, Texas in November 2013. The entire stay was a sort of comedy of errors that did not end well for me. I am a young professional female, who was traveling alone at the time. Upon driving up to the hotel, there was an unkept man outside on a cell phone, unprofessionally dressed, who then walked in behind me saying "I have someone to check in now." I had no way to know he was affiliated with the hotel as he wasn't dressed as such, no name badge/ID, etc.   I checked into the hotel with a reservation around 7pm and was assigned room 219. Upon opening the door to the room, I could see bags on the beds as well as people in the room who obviously did not want to be disturbed. I quickly exited the room and returned to the front desk. I told the person at the desk that the room was occupied as well as unclean. He stated those people had checked out hours ago and should not be there. Regardless, they were and the room wasn't clean and ready for another guest. I was then assigned 203. Before entering the room, I knocked with no answer, so I proceeded into the room and settled in for the night. By this time, it is nearing 8pm.   At approximately 1:30am, I hear a loud bang at my door. It was the sound of someone opening the door and the security latch catching before the door opened completely. I jumped out of bed and found two seemingly intoxicated males at my door who stated they were also assigned 203 and had a key card that opened the door. I quickly dressed and went downstairs with the two men to sort out the mess.   I was told by another employee, easily identifiable as an employee by his LaQuinta polo and name badge, that I was showing to be in room 218. I was told I could go back to my room and I would not be moved again in the middle of the night. However, at this point, I was unable to go back to sleep after two disturbing events in the past few hours at your hotel. I had to be at a hospital to teach at 6am.   I feel this is not only unprofessional but also unsafe. I hope that you will do something to make this right not only for me but also for future guests to not experience the same frustrations and inconveniences, to say the least.More</t>
   </si>
   <si>
+    <t>Mike C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r184844620-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1350,6 +1524,9 @@
     <t>Great place to unwind after working all day. It was quite and clean. Staff was GREAT. Food was hot and countertops were kept clean. Location was to be desired but for the value added of the room cost it is worth it.</t>
   </si>
   <si>
+    <t>salgeller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r184125508-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1365,6 +1542,9 @@
     <t>Each visit to any La Quinta Inn I have stayed in has been the most welcoming and amazing stay.  Each as friendly and comfortable as the others.  I prefer La Quinta over any other hotel I have stayed in.  The cleanliness is first but the welcoming and personal attention I receive means so very much to me.</t>
   </si>
   <si>
+    <t>ca_davies1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r183687832-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1386,6 +1566,9 @@
     <t>The hotel is dated, but quite nicely clean and well kept up. When we checked in, the concierge, Jack, was extremely helpful in getting us the rooms we asked for and in telling us about some good restaurants in the area.  We were here for a week and had no problems to speak of.    The other front desk person who was very helpful was Amanda.  Housekeeping did a great job, the rooms were clean, comfortable and spacious.  There was a fridge, microwave and coffeepot in the room.  The breakfast offerings were what one would expect-- eggs, meat, biscuits and gravy as well as fruit and cereals.  Most of the clientele while we were there were other working people, many of whom started the day eating breakfast early.  The staff did a great job keeping the breakfast items well stocked.I would definitely stay here again and would recommend it to others who need a good place to stay in the area.More</t>
   </si>
   <si>
+    <t>Gabriele S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r181753861-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1404,6 +1587,9 @@
     <t>The rooms are very clean - we watch Hotel Impossible and it passed the Anthony Melchiorri cleanliness checks we did :) Staff very nice and helpful. The first night we didn't sleep too well because our room faced the busy road/traffic lights so the next morning we were given a room to the other, quieter side without hesitation.Second night we could hear the AC in the next room was so noisy, we didn't get much sleep til 2am. We called reception at 2:15am and since that room was unoccupied the night clerk came up within minutes to turn it off. Had a good night's sleep after that! Hotel wasn't too busy, so we did not hear neighbors but a family member staying on another floor had noisy ones they could hear through the walls. AC is incredibly noisy, can't sleep with it on, so I would not want to come here in the summer! Other than that, stay was great, rooms, and hotel in general, VERY clean, great breakfast, comfortable beds, good free WIFI access, helpful and friendly staff.More</t>
   </si>
   <si>
+    <t>iammarilynt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r177988124-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1422,6 +1608,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>m m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r158124721-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1440,6 +1629,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>bevopride</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r150337024-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1458,6 +1650,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>A La Quinta traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r140675961-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1470,6 +1665,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>sharoncF4187KA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r139888696-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1515,6 +1713,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>queenbarbara</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r130639579-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1533,6 +1734,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>Sherry1231</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r92653253-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +1755,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>JoeArkansas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r17734637-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1569,6 +1776,9 @@
     <t>We stayed one night with our 2 year old.  The hotel is obviously brand new.  We could even faintly smell new paint.  The bathroom sink sits in a dresser instead of on a formica counter- very classy.  New flat screen TV sits on a high dresser where a curious child can't reach for your keys and other valuables.  Light switch by the bed turns the doorway light on and off, which is a convenient benefit.  Two complaints:  the AC is too loud.  It is possible to leave the fan in the on position however, so at least you don't have to hear it cycle on and off.  Second, they didn't provide us with a true crib, just a "pack and play" that our child didn't sleep well in.  Hotel was not busy so we didn't hear anyone else the whole night.  The hotel was located off a main street with a neighborhood behind it.  We left our uncovered trailer in the parking lot with a little hesitation but it went untouched.More</t>
   </si>
   <si>
+    <t>Lurajean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r17676932-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1584,6 +1794,9 @@
     <t>We loved this hotel..everything was new, immaculate, our room was huge..nice huge tv in room, nice business center. Clean, nice outdoor pool. Breakfast was good but could have been better...Texas shaped waffles were pretty neat, but no extra toppings except for syrup. The receptionist was kind of unprofessional, watching tv on the couch in the lobby, but everyone was very nice. No pack-n-plays for our toddlers. But overall for cleanliness, convenience and price it was great.</t>
   </si>
   <si>
+    <t>texastravelfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r17002927-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1600,6 +1813,9 @@
   </si>
   <si>
     <t>This hotel opened in January 2008 and is very well kept and clean.  We stayed there with a group for a softball tournament and everyone in our group was impressed.  Nice pool, good location, and the staff was very helpful and friendly.  Breakfast was great, and the nice woman working the breakfast area would even make your Texas-shaped waffle for you and bring it to your table.  Other than waffles, there was cold cereal, oatmeal, biscuits, bagels, muffins, doughnuts, juice, milk, coffee, tea, fruit, and yogurt.  One of our group thought they left their cell phone in the hotel and the manager quickly sent someone to check the room and call us right back.  The staff went out of their way to make dinner suggestions and help with any little thing we needed.  It was a great experience and I would not hesitate to stay there again or recommend this property.More</t>
+  </si>
+  <si>
+    <t>NicoleKHewitt</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d878079-r16354306-La_Quinta_Inn_Suites_Cleburne-Cleburne_Texas.html</t>
@@ -2122,43 +2338,47 @@
       <c r="A2" t="n">
         <v>57259</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>163315</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -2180,56 +2400,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57259</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>163316</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2251,56 +2475,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57259</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>25198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2322,56 +2550,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57259</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>163317</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2393,56 +2625,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57259</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>163318</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2454,56 +2690,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57259</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>163319</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2515,56 +2755,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57259</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>163320</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2586,56 +2830,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57259</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>163321</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>114</v>
       </c>
-      <c r="L9" t="s">
-        <v>115</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>107</v>
-      </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2657,56 +2905,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57259</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>163322</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -2728,56 +2980,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57259</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>163323</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2799,56 +3055,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57259</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>163324</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2860,56 +3120,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57259</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>163325</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2931,56 +3195,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57259</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>8758</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
+        <v>162</v>
+      </c>
+      <c r="J14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s">
+        <v>165</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>149</v>
       </c>
-      <c r="J14" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14" t="s">
-        <v>152</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>138</v>
-      </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3002,56 +3270,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X14" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57259</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>163326</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3073,56 +3345,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57259</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>39428</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3144,56 +3420,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="X16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57259</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>163327</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3211,56 +3491,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57259</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>43666</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3276,56 +3560,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="X18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57259</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>163328</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3347,56 +3635,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57259</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>163329</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O20" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -3418,56 +3710,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="X20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Y20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57259</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>163330</v>
+      </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3483,56 +3779,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="X21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57259</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>163331</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="J22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3554,56 +3854,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="X22" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Y22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57259</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>163332</v>
+      </c>
+      <c r="C23" t="s">
+        <v>240</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3625,56 +3929,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="X23" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Y23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57259</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>163333</v>
+      </c>
+      <c r="C24" t="s">
+        <v>247</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3694,50 +4002,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57259</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>15630</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="K25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3761,50 +4073,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57259</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>163334</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="K26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="O26" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3828,50 +4144,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57259</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>4155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>268</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="K27" t="s">
         <v>37</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3895,41 +4215,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57259</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>73740</v>
+      </c>
+      <c r="C28" t="s">
+        <v>273</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="J28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="K28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
@@ -3946,56 +4270,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="X28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="Y28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57259</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>8194</v>
+      </c>
+      <c r="C29" t="s">
+        <v>282</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="J29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="K29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4019,50 +4347,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57259</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>488</v>
+      </c>
+      <c r="C30" t="s">
+        <v>288</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="K30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="L30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4086,50 +4418,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57259</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>95601</v>
+      </c>
+      <c r="C31" t="s">
+        <v>294</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="J31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="K31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="L31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="O31" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4141,56 +4477,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="X31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="Y31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57259</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>92055</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="J32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="K32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4214,50 +4554,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57259</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>5653</v>
+      </c>
+      <c r="C33" t="s">
+        <v>311</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="J33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="K33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="L33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="O33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4281,50 +4625,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57259</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>1283</v>
+      </c>
+      <c r="C34" t="s">
+        <v>317</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="J34" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="K34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="L34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4346,56 +4694,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="X34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="Y34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57259</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>163335</v>
+      </c>
+      <c r="C35" t="s">
+        <v>325</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="J35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4417,56 +4769,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="X35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="Y35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57259</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>35575</v>
+      </c>
+      <c r="C36" t="s">
+        <v>335</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="J36" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="K36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4488,56 +4844,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="X36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="Y36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57259</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>163336</v>
+      </c>
+      <c r="C37" t="s">
+        <v>345</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="J37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="K37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="L37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="O37" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4555,56 +4915,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="X37" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="Y37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57259</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>163337</v>
+      </c>
+      <c r="C38" t="s">
+        <v>352</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="J38" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="K38" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="L38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="O38" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4622,56 +4986,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="X38" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="Y38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57259</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>1396</v>
+      </c>
+      <c r="C39" t="s">
+        <v>360</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="J39" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="K39" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="L39" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4693,38 +5061,42 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="X39" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="Y39" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57259</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>5857</v>
+      </c>
+      <c r="C40" t="s">
+        <v>367</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="J40" t="s"/>
       <c r="K40" t="s"/>
@@ -4741,51 +5113,52 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57259</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>163338</v>
+      </c>
+      <c r="C41" t="s">
+        <v>370</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="K41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="O41" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4799,50 +5172,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57259</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>11777</v>
+      </c>
+      <c r="C42" t="s">
+        <v>377</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="J42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="K42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="O42" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4866,50 +5243,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57259</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>967</v>
+      </c>
+      <c r="C43" t="s">
+        <v>384</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="J43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="K43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4933,50 +5314,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57259</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>163339</v>
+      </c>
+      <c r="C44" t="s">
+        <v>391</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="J44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="K44" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="L44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="O44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5000,50 +5385,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57259</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>163340</v>
+      </c>
+      <c r="C45" t="s">
+        <v>398</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="J45" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="K45" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="L45" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="O45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5057,50 +5446,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57259</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>14326</v>
+      </c>
+      <c r="C46" t="s">
+        <v>403</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="J46" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="K46" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="L46" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5124,50 +5517,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57259</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>90007</v>
+      </c>
+      <c r="C47" t="s">
+        <v>410</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="J47" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="K47" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="L47" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="O47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5187,50 +5584,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57259</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>163341</v>
+      </c>
+      <c r="C48" t="s">
+        <v>418</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="J48" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="K48" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="L48" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="O48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5252,56 +5653,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="X48" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="Y48" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57259</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>20386</v>
+      </c>
+      <c r="C49" t="s">
+        <v>427</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="J49" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="K49" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="O49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5321,50 +5726,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57259</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>14380</v>
+      </c>
+      <c r="C50" t="s">
+        <v>434</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="J50" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="K50" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="L50" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5382,50 +5791,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57259</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>10047</v>
+      </c>
+      <c r="C51" t="s">
+        <v>442</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="J51" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="K51" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="L51" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="O51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5439,50 +5852,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57259</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>163342</v>
+      </c>
+      <c r="C52" t="s">
+        <v>449</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="J52" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="K52" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="L52" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="O52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5506,50 +5923,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57259</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>88382</v>
+      </c>
+      <c r="C53" t="s">
+        <v>454</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="J53" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="K53" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="L53" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="O53" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5563,50 +5984,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57259</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>9091</v>
+      </c>
+      <c r="C54" t="s">
+        <v>460</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="J54" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="K54" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="L54" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="O54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5630,50 +6055,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57259</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>163343</v>
+      </c>
+      <c r="C55" t="s">
+        <v>466</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="J55" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="K55" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="L55" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="O55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5697,50 +6126,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57259</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>163344</v>
+      </c>
+      <c r="C56" t="s">
+        <v>472</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="J56" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="K56" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="L56" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="O56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5764,50 +6197,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57259</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>46734</v>
+      </c>
+      <c r="C57" t="s">
+        <v>479</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="J57" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="K57" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="L57" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="O57" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5831,50 +6268,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57259</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>163345</v>
+      </c>
+      <c r="C58" t="s">
+        <v>486</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="J58" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="K58" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="L58" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -5896,56 +6337,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="X58" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="Y58" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57259</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>3891</v>
+      </c>
+      <c r="C59" t="s">
+        <v>496</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="J59" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="K59" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="L59" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5969,50 +6414,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57259</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>163346</v>
+      </c>
+      <c r="C60" t="s">
+        <v>502</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="J60" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="K60" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="L60" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6036,50 +6485,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>57259</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>163347</v>
+      </c>
+      <c r="C61" t="s">
+        <v>508</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>449</v>
+        <v>509</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="J61" t="s">
-        <v>451</v>
+        <v>511</v>
       </c>
       <c r="K61" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
       <c r="L61" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6103,50 +6556,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>57259</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>163348</v>
+      </c>
+      <c r="C62" t="s">
+        <v>516</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>457</v>
+        <v>518</v>
       </c>
       <c r="J62" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="K62" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="L62" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="O62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6170,50 +6627,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>57259</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>163349</v>
+      </c>
+      <c r="C63" t="s">
+        <v>523</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>462</v>
+        <v>524</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>463</v>
+        <v>525</v>
       </c>
       <c r="J63" t="s">
-        <v>464</v>
+        <v>526</v>
       </c>
       <c r="K63" t="s">
-        <v>465</v>
+        <v>527</v>
       </c>
       <c r="L63" t="s">
-        <v>466</v>
+        <v>528</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="O63" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6237,50 +6698,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>466</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>57259</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>163350</v>
+      </c>
+      <c r="C64" t="s">
+        <v>530</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>469</v>
+        <v>532</v>
       </c>
       <c r="J64" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="K64" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="L64" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>473</v>
+        <v>536</v>
       </c>
       <c r="O64" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6304,50 +6769,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>57259</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>163351</v>
+      </c>
+      <c r="C65" t="s">
+        <v>537</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="J65" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
       <c r="K65" t="s">
-        <v>477</v>
+        <v>541</v>
       </c>
       <c r="L65" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6371,35 +6840,39 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>57259</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C66" t="s">
+        <v>544</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>480</v>
+        <v>545</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>481</v>
+        <v>546</v>
       </c>
       <c r="J66" t="s">
-        <v>482</v>
+        <v>547</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -6407,10 +6880,10 @@
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>483</v>
+        <v>548</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6431,36 +6904,37 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>57259</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>163352</v>
+      </c>
+      <c r="C67" t="s">
+        <v>549</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="J67" t="s">
-        <v>486</v>
+        <v>552</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -6468,10 +6942,10 @@
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>483</v>
+        <v>548</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6492,36 +6966,37 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>57259</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C68" t="s">
+        <v>544</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>488</v>
+        <v>554</v>
       </c>
       <c r="J68" t="s">
-        <v>489</v>
+        <v>555</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -6529,10 +7004,10 @@
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>490</v>
+        <v>556</v>
       </c>
       <c r="O68" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6553,36 +7028,37 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>57259</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C69" t="s">
+        <v>544</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>491</v>
+        <v>557</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="J69" t="s">
-        <v>493</v>
+        <v>559</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6590,10 +7066,10 @@
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>490</v>
+        <v>556</v>
       </c>
       <c r="O69" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6614,49 +7090,50 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>57259</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C70" t="s">
+        <v>544</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>494</v>
+        <v>560</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>495</v>
+        <v>561</v>
       </c>
       <c r="J70" t="s">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>490</v>
+        <v>556</v>
       </c>
       <c r="O70" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6680,50 +7157,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>57259</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>163353</v>
+      </c>
+      <c r="C71" t="s">
+        <v>565</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>499</v>
+        <v>566</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="J71" t="s">
-        <v>501</v>
+        <v>568</v>
       </c>
       <c r="K71" t="s">
-        <v>502</v>
+        <v>569</v>
       </c>
       <c r="L71" t="s">
-        <v>503</v>
+        <v>570</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>504</v>
+        <v>571</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6747,50 +7228,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>503</v>
+        <v>570</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>57259</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>163354</v>
+      </c>
+      <c r="C72" t="s">
+        <v>572</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>505</v>
+        <v>573</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>506</v>
+        <v>574</v>
       </c>
       <c r="J72" t="s">
-        <v>507</v>
+        <v>575</v>
       </c>
       <c r="K72" t="s">
-        <v>508</v>
+        <v>576</v>
       </c>
       <c r="L72" t="s">
-        <v>509</v>
+        <v>577</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>510</v>
+        <v>578</v>
       </c>
       <c r="O72" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6814,41 +7299,45 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>509</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>57259</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>163355</v>
+      </c>
+      <c r="C73" t="s">
+        <v>579</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>512</v>
+        <v>581</v>
       </c>
       <c r="J73" t="s">
-        <v>513</v>
+        <v>582</v>
       </c>
       <c r="K73" t="s">
-        <v>514</v>
+        <v>583</v>
       </c>
       <c r="L73" t="s">
-        <v>515</v>
+        <v>584</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
@@ -6877,41 +7366,45 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>516</v>
+        <v>585</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>57259</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>163356</v>
+      </c>
+      <c r="C74" t="s">
+        <v>586</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>517</v>
+        <v>587</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>518</v>
+        <v>588</v>
       </c>
       <c r="J74" t="s">
-        <v>519</v>
+        <v>589</v>
       </c>
       <c r="K74" t="s">
-        <v>520</v>
+        <v>590</v>
       </c>
       <c r="L74" t="s">
-        <v>521</v>
+        <v>591</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
@@ -6940,41 +7433,45 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>521</v>
+        <v>591</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>57259</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>163357</v>
+      </c>
+      <c r="C75" t="s">
+        <v>592</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>522</v>
+        <v>593</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>523</v>
+        <v>594</v>
       </c>
       <c r="J75" t="s">
-        <v>524</v>
+        <v>595</v>
       </c>
       <c r="K75" t="s">
-        <v>525</v>
+        <v>596</v>
       </c>
       <c r="L75" t="s">
-        <v>526</v>
+        <v>597</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
@@ -7003,50 +7500,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>527</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>57259</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>163358</v>
+      </c>
+      <c r="C76" t="s">
+        <v>599</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>528</v>
+        <v>600</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
       <c r="J76" t="s">
-        <v>530</v>
+        <v>602</v>
       </c>
       <c r="K76" t="s">
-        <v>531</v>
+        <v>603</v>
       </c>
       <c r="L76" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>533</v>
+        <v>605</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7070,7 +7571,7 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
